--- a/src/download/mortgage_rbnz_1964-now.xlsx
+++ b/src/download/mortgage_rbnz_1964-now.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\ec\du\Surveys\Interest Rates\2019\10\Web tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\ec\du\Surveys\Interest Rates\2019\11\Web tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -579,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J674"/>
+  <dimension ref="A1:J675"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -12481,6 +12481,12 @@
       <c r="C673" s="8">
         <v>5.26</v>
       </c>
+      <c r="D673" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="E673" s="7">
+        <v>10.7</v>
+      </c>
       <c r="F673" s="8">
         <v>2.79</v>
       </c>
@@ -12497,6 +12503,20 @@
       </c>
       <c r="F674" s="8">
         <v>2.73</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A675" s="10">
+        <v>43799</v>
+      </c>
+      <c r="B675" s="8">
+        <v>9</v>
+      </c>
+      <c r="C675" s="8">
+        <v>5.26</v>
+      </c>
+      <c r="F675" s="8">
+        <v>2.65</v>
       </c>
     </row>
   </sheetData>
@@ -12556,7 +12576,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="9">
-        <v>43776</v>
+        <v>43805</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
